--- a/d4ti ploting rapih.xlsx
+++ b/d4ti ploting rapih.xlsx
@@ -12,8 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="114">
   <si>
     <t>namaprodi</t>
   </si>
@@ -361,6 +363,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>a4;5</t>
   </si>
 </sst>
 </file>
@@ -680,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,9 +770,6 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
       <c r="K2" t="s">
         <v>87</v>
       </c>
@@ -800,9 +805,6 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
       <c r="K3" t="s">
         <v>87</v>
       </c>
@@ -838,9 +840,6 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
       <c r="K4" t="s">
         <v>88</v>
       </c>
@@ -876,9 +875,6 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
       <c r="K5" t="s">
         <v>88</v>
       </c>
@@ -914,9 +910,6 @@
       <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
       <c r="K6" t="s">
         <v>88</v>
       </c>
@@ -952,9 +945,6 @@
       <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
       <c r="K7" t="s">
         <v>88</v>
       </c>
@@ -990,9 +980,6 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
       <c r="K8" t="s">
         <v>88</v>
       </c>
@@ -1028,9 +1015,6 @@
       <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
       <c r="K9" t="s">
         <v>88</v>
       </c>
@@ -1066,9 +1050,6 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
       <c r="K10" t="s">
         <v>87</v>
       </c>
@@ -1104,9 +1085,6 @@
       <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
       <c r="K11" t="s">
         <v>87</v>
       </c>
@@ -1142,9 +1120,6 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
       <c r="K12" t="s">
         <v>87</v>
       </c>
@@ -1180,9 +1155,6 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
       <c r="K13" t="s">
         <v>88</v>
       </c>
@@ -1218,9 +1190,6 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
       <c r="K14" t="s">
         <v>88</v>
       </c>
@@ -1256,9 +1225,6 @@
       <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
       <c r="K15" t="s">
         <v>88</v>
       </c>
@@ -1294,9 +1260,6 @@
       <c r="I16" t="s">
         <v>31</v>
       </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
       <c r="K16" t="s">
         <v>89</v>
       </c>
@@ -1332,9 +1295,6 @@
       <c r="I17" t="s">
         <v>31</v>
       </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
       <c r="K17" t="s">
         <v>89</v>
       </c>
@@ -1370,9 +1330,6 @@
       <c r="I18" t="s">
         <v>34</v>
       </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
       <c r="K18" t="s">
         <v>90</v>
       </c>
@@ -1408,9 +1365,6 @@
       <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
       <c r="K19" t="s">
         <v>90</v>
       </c>
@@ -1446,9 +1400,6 @@
       <c r="I20" t="s">
         <v>37</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
       <c r="K20" t="s">
         <v>90</v>
       </c>
@@ -1484,9 +1435,6 @@
       <c r="I21" t="s">
         <v>37</v>
       </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
       <c r="K21" t="s">
         <v>90</v>
       </c>
@@ -1522,9 +1470,6 @@
       <c r="I22" t="s">
         <v>37</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
       <c r="K22" t="s">
         <v>90</v>
       </c>
@@ -1560,9 +1505,6 @@
       <c r="I23" t="s">
         <v>31</v>
       </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
       <c r="K23" t="s">
         <v>90</v>
       </c>
@@ -1598,9 +1540,6 @@
       <c r="I24" t="s">
         <v>40</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24" t="s">
         <v>90</v>
       </c>
@@ -1636,9 +1575,6 @@
       <c r="I25" t="s">
         <v>40</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25" t="s">
         <v>90</v>
       </c>
@@ -1674,9 +1610,6 @@
       <c r="I26" t="s">
         <v>43</v>
       </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
       <c r="K26" t="s">
         <v>88</v>
       </c>
@@ -1712,9 +1645,6 @@
       <c r="I27" t="s">
         <v>43</v>
       </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
       <c r="K27" t="s">
         <v>88</v>
       </c>
@@ -1750,9 +1680,6 @@
       <c r="I28" t="s">
         <v>43</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
       <c r="K28" t="s">
         <v>88</v>
       </c>
@@ -1788,9 +1715,6 @@
       <c r="I29" t="s">
         <v>46</v>
       </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
       <c r="K29" t="s">
         <v>89</v>
       </c>
@@ -1826,9 +1750,6 @@
       <c r="I30" t="s">
         <v>46</v>
       </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
       <c r="K30" t="s">
         <v>89</v>
       </c>
@@ -1864,9 +1785,6 @@
       <c r="I31" t="s">
         <v>46</v>
       </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
       <c r="K31" t="s">
         <v>89</v>
       </c>
@@ -1902,9 +1820,6 @@
       <c r="I32" t="s">
         <v>49</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
       <c r="K32" t="s">
         <v>91</v>
       </c>
@@ -1940,9 +1855,6 @@
       <c r="I33" t="s">
         <v>49</v>
       </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
       <c r="K33" t="s">
         <v>91</v>
       </c>
@@ -1978,9 +1890,6 @@
       <c r="I34" t="s">
         <v>49</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
       <c r="K34" t="s">
         <v>91</v>
       </c>
@@ -2016,9 +1925,6 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
       <c r="K35" t="s">
         <v>90</v>
       </c>
@@ -2054,9 +1960,6 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
       <c r="K36" t="s">
         <v>90</v>
       </c>
@@ -2092,9 +1995,6 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
       <c r="K37" t="s">
         <v>90</v>
       </c>
@@ -2130,9 +2030,6 @@
       <c r="I38" t="s">
         <v>31</v>
       </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
       <c r="K38" t="s">
         <v>90</v>
       </c>
@@ -2168,9 +2065,6 @@
       <c r="I39" t="s">
         <v>31</v>
       </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
       <c r="K39" t="s">
         <v>90</v>
       </c>
@@ -2206,9 +2100,6 @@
       <c r="I40" t="s">
         <v>57</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
       <c r="K40" t="s">
         <v>90</v>
       </c>
@@ -2244,9 +2135,6 @@
       <c r="I41" t="s">
         <v>57</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
       <c r="K41" t="s">
         <v>90</v>
       </c>
@@ -2282,9 +2170,6 @@
       <c r="I42" t="s">
         <v>57</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
       <c r="K42" t="s">
         <v>90</v>
       </c>
@@ -2320,9 +2205,6 @@
       <c r="I43" t="s">
         <v>60</v>
       </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
       <c r="K43" t="s">
         <v>91</v>
       </c>
@@ -2358,9 +2240,6 @@
       <c r="I44" t="s">
         <v>60</v>
       </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
       <c r="K44" t="s">
         <v>91</v>
       </c>
@@ -2396,9 +2275,6 @@
       <c r="I45" t="s">
         <v>60</v>
       </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
       <c r="K45" t="s">
         <v>91</v>
       </c>
@@ -2434,9 +2310,6 @@
       <c r="I46" t="s">
         <v>37</v>
       </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
       <c r="K46" t="s">
         <v>90</v>
       </c>
@@ -2472,9 +2345,6 @@
       <c r="I47" t="s">
         <v>37</v>
       </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
       <c r="K47" t="s">
         <v>90</v>
       </c>
@@ -2510,9 +2380,6 @@
       <c r="I48" t="s">
         <v>37</v>
       </c>
-      <c r="J48">
-        <v>3</v>
-      </c>
       <c r="K48" t="s">
         <v>90</v>
       </c>
@@ -2548,9 +2415,6 @@
       <c r="I49" t="s">
         <v>40</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
       <c r="K49" t="s">
         <v>90</v>
       </c>
@@ -2586,9 +2450,6 @@
       <c r="I50" t="s">
         <v>40</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
       <c r="K50" t="s">
         <v>90</v>
       </c>
@@ -2624,9 +2485,6 @@
       <c r="I51" t="s">
         <v>40</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
       <c r="K51" t="s">
         <v>90</v>
       </c>
@@ -2662,9 +2520,6 @@
       <c r="I52" t="s">
         <v>40</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
       <c r="K52" t="s">
         <v>90</v>
       </c>
@@ -2700,9 +2555,6 @@
       <c r="I53" t="s">
         <v>70</v>
       </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
       <c r="K53" t="s">
         <v>88</v>
       </c>
@@ -2738,9 +2590,6 @@
       <c r="I54" t="s">
         <v>70</v>
       </c>
-      <c r="J54">
-        <v>3</v>
-      </c>
       <c r="K54" t="s">
         <v>88</v>
       </c>
@@ -2776,9 +2625,6 @@
       <c r="I55" t="s">
         <v>70</v>
       </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
       <c r="K55" t="s">
         <v>88</v>
       </c>
@@ -2814,9 +2660,6 @@
       <c r="I56" t="s">
         <v>25</v>
       </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
       <c r="K56" t="s">
         <v>90</v>
       </c>
@@ -2852,9 +2695,6 @@
       <c r="I57" t="s">
         <v>25</v>
       </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
       <c r="K57" t="s">
         <v>90</v>
       </c>
@@ -2890,9 +2730,6 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58">
-        <v>3</v>
-      </c>
       <c r="K58" t="s">
         <v>90</v>
       </c>
@@ -2927,9 +2764,6 @@
       </c>
       <c r="I59" t="s">
         <v>28</v>
-      </c>
-      <c r="J59">
-        <v>3</v>
       </c>
       <c r="K59" t="s">
         <v>88</v>
@@ -2944,6 +2778,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -4136,4 +4144,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/d4ti ploting rapih.xlsx
+++ b/d4ti ploting rapih.xlsx
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1284,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1949,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
@@ -2019,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="F42">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -2194,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2264,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -2299,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
@@ -2404,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="F51">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -2544,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
@@ -2649,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="F56">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -2719,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>

--- a/d4ti ploting rapih.xlsx
+++ b/d4ti ploting rapih.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IRC\JadwalKuliah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IRC\JadwalKuliah\xxx\GAClassScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="118">
   <si>
     <t>namaprodi</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>a4;5</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>1;4</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>5;2</t>
   </si>
 </sst>
 </file>
@@ -688,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +852,9 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
       <c r="K4" t="s">
         <v>88</v>
       </c>
@@ -875,6 +890,9 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
       <c r="K5" t="s">
         <v>88</v>
       </c>
@@ -1260,6 +1278,9 @@
       <c r="I16" t="s">
         <v>31</v>
       </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
       <c r="K16" t="s">
         <v>89</v>
       </c>
@@ -1295,6 +1316,9 @@
       <c r="I17" t="s">
         <v>31</v>
       </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
       <c r="K17" t="s">
         <v>89</v>
       </c>
@@ -1715,6 +1739,9 @@
       <c r="I29" t="s">
         <v>46</v>
       </c>
+      <c r="J29" t="s">
+        <v>117</v>
+      </c>
       <c r="K29" t="s">
         <v>89</v>
       </c>
@@ -1750,6 +1777,9 @@
       <c r="I30" t="s">
         <v>46</v>
       </c>
+      <c r="J30" t="s">
+        <v>117</v>
+      </c>
       <c r="K30" t="s">
         <v>89</v>
       </c>
@@ -1785,6 +1815,9 @@
       <c r="I31" t="s">
         <v>46</v>
       </c>
+      <c r="J31" t="s">
+        <v>117</v>
+      </c>
       <c r="K31" t="s">
         <v>89</v>
       </c>
@@ -2415,6 +2448,9 @@
       <c r="I49" t="s">
         <v>40</v>
       </c>
+      <c r="J49" t="s">
+        <v>116</v>
+      </c>
       <c r="K49" t="s">
         <v>90</v>
       </c>
@@ -2450,6 +2486,9 @@
       <c r="I50" t="s">
         <v>40</v>
       </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
       <c r="K50" t="s">
         <v>90</v>
       </c>
@@ -2485,6 +2524,9 @@
       <c r="I51" t="s">
         <v>40</v>
       </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
       <c r="K51" t="s">
         <v>90</v>
       </c>
@@ -2519,6 +2561,9 @@
       </c>
       <c r="I52" t="s">
         <v>40</v>
+      </c>
+      <c r="J52" t="s">
+        <v>116</v>
       </c>
       <c r="K52" t="s">
         <v>90</v>
